--- a/MoSCoW.xlsx
+++ b/MoSCoW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fontys\ReserveringsSysteem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fontys\git\InvoiceManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54880741-2EE4-4A0A-AF1B-66F1D0FF15B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EE5CF0-CB36-44B8-9C75-F53B12CD384F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11052" yWindow="4596" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project WBS monitor" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'project WBS monitor'!$A$3:$E$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'project WBS monitor'!$A$1:$E$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'project WBS monitor'!$A$1:$E$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>C</t>
   </si>
@@ -138,9 +138,6 @@
     <t>contracten toevoegen</t>
   </si>
   <si>
-    <t>contracten aanpassen</t>
-  </si>
-  <si>
     <t>contracten verwijderen</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>facturen genereren</t>
   </si>
   <si>
-    <t>factuur mailen naar bedrijv</t>
-  </si>
-  <si>
     <t>Incasso's</t>
   </si>
   <si>
@@ -177,7 +171,93 @@
     <t>Factuur Systeem</t>
   </si>
   <si>
-    <t>test</t>
+    <t>factuur mailen naar bedrijven</t>
+  </si>
+  <si>
+    <t>bedrijven niet echt verwijderen maar verbergen</t>
+  </si>
+  <si>
+    <t>de ingevoerde gegeven van bedrijven bijwerken/invullen</t>
+  </si>
+  <si>
+    <t>invoeren van bedrijfdata</t>
+  </si>
+  <si>
+    <t>•	Naam bedrijf*
+•	Klanten nummer
+•	IBAN*
+•	IBAN Ternaamstelling*
+•	Telefoonnummer
+•	Website
+•	Email*
+•	Address 1*
+•	Address 2
+•	Mandaat datum*</t>
+  </si>
+  <si>
+    <t>contracten koppelen met bedrijven</t>
+  </si>
+  <si>
+    <t>contract kunnen selecteren om te koppelen</t>
+  </si>
+  <si>
+    <t>aantal van de contracten kunnen selecteren</t>
+  </si>
+  <si>
+    <t>startdatum contract instellen</t>
+  </si>
+  <si>
+    <t>wanneer contract afloopt eind datum kunnen instellen</t>
+  </si>
+  <si>
+    <t>invoeren van contractdata</t>
+  </si>
+  <si>
+    <t>•	Naam
+•	Omschrijving
+•	Prijs</t>
+  </si>
+  <si>
+    <t>contracten niet echt verwijderen maar verbergen</t>
+  </si>
+  <si>
+    <t>minimaal 1 bedrijf selectern.</t>
+  </si>
+  <si>
+    <t>optie om alle bedrijven te kunnen selecteren</t>
+  </si>
+  <si>
+    <t>template vullen met data</t>
+  </si>
+  <si>
+    <t>placeholders vullen</t>
+  </si>
+  <si>
+    <t>tabel(en) vullen</t>
+  </si>
+  <si>
+    <t>8,1,1</t>
+  </si>
+  <si>
+    <t>8,1,2</t>
+  </si>
+  <si>
+    <t>opslaan als pdf</t>
+  </si>
+  <si>
+    <t>gemaakte facturen in zip stoppen</t>
+  </si>
+  <si>
+    <t>zip met facturen kunnen downloaden</t>
+  </si>
+  <si>
+    <t>factuur als pdf versturen in mail</t>
+  </si>
+  <si>
+    <t>eigen tekst met placeholders kunnen versturen</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
 </sst>
 </file>
@@ -343,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -384,6 +464,37 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,33 +502,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -708,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,10 +812,10 @@
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="19"/>
+      <c r="B1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="32"/>
       <c r="D1" s="2"/>
       <c r="E1" s="16"/>
     </row>
@@ -739,217 +823,537 @@
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="33">
         <v>43878</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="2"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="30" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="C7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="29">
+        <v>2</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="29">
+        <v>3</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="29">
+        <v>4</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="29">
+        <v>5</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="29">
+        <v>6</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="29">
+        <v>7</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="29">
+        <v>8</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="29">
+        <v>9</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="18">
+        <v>10</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="18">
+        <v>11</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="23"/>
-      <c r="E20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28" t="s">
+      <c r="E40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="13"/>
+      <c r="E41" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="19"/>
+      <c r="E42" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="29"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E5" xr:uid="{00000000-0009-0000-0000-000000000000}">
